--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H2">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="N2">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="O2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="P2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="Q2">
-        <v>0.5399648232364883</v>
+        <v>2.404541813194445</v>
       </c>
       <c r="R2">
-        <v>0.5399648232364883</v>
+        <v>21.64087631875</v>
       </c>
       <c r="S2">
-        <v>6.735256137633188E-07</v>
+        <v>2.788049527158874E-06</v>
       </c>
       <c r="T2">
-        <v>6.735256137633188E-07</v>
+        <v>2.788049527158873E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H3">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="N3">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="O3">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="P3">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="Q3">
-        <v>912.6707232070058</v>
+        <v>0.2199329952833333</v>
       </c>
       <c r="R3">
-        <v>912.6707232070058</v>
+        <v>1.97939695755</v>
       </c>
       <c r="S3">
-        <v>0.001138420657344539</v>
+        <v>2.550107800752753E-07</v>
       </c>
       <c r="T3">
-        <v>0.001138420657344539</v>
+        <v>2.550107800752753E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H4">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="N4">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="O4">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="P4">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="Q4">
-        <v>1290.607968767896</v>
+        <v>2923.573552173239</v>
       </c>
       <c r="R4">
-        <v>1290.607968767896</v>
+        <v>26312.16196955915</v>
       </c>
       <c r="S4">
-        <v>0.001609841024609707</v>
+        <v>0.003389863222599593</v>
       </c>
       <c r="T4">
-        <v>0.001609841024609707</v>
+        <v>0.003389863222599593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H5">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I5">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J5">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>551.244695204251</v>
+        <v>390.777049</v>
       </c>
       <c r="N5">
-        <v>551.244695204251</v>
+        <v>1172.331147</v>
       </c>
       <c r="O5">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="P5">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="Q5">
-        <v>1854.454678963775</v>
+        <v>3714.602881728483</v>
       </c>
       <c r="R5">
-        <v>1854.454678963775</v>
+        <v>33431.42593555635</v>
       </c>
       <c r="S5">
-        <v>0.002313155731810145</v>
+        <v>0.004307056234645982</v>
       </c>
       <c r="T5">
-        <v>0.002313155731810145</v>
+        <v>0.004307056234645982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>310.341986937697</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H6">
-        <v>310.341986937697</v>
+        <v>28.51705</v>
       </c>
       <c r="I6">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J6">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.160506885276019</v>
+        <v>568.7975463333333</v>
       </c>
       <c r="N6">
-        <v>0.160506885276019</v>
+        <v>1706.392639</v>
       </c>
       <c r="O6">
-        <v>0.0001330528474950822</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="P6">
-        <v>0.0001330528474950822</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="Q6">
-        <v>49.81202569374072</v>
+        <v>5406.809356221662</v>
       </c>
       <c r="R6">
-        <v>49.81202569374072</v>
+        <v>48661.28420599495</v>
       </c>
       <c r="S6">
-        <v>6.2133075590143E-05</v>
+        <v>0.006269157885437433</v>
       </c>
       <c r="T6">
-        <v>6.2133075590143E-05</v>
+        <v>0.006269157885437433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>310.341986937697</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H7">
-        <v>310.341986937697</v>
+        <v>28.51705</v>
       </c>
       <c r="I7">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J7">
-        <v>0.4669804274007704</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>271.29533028934</v>
+        <v>0.007196999999999999</v>
       </c>
       <c r="N7">
-        <v>271.29533028934</v>
+        <v>0.021591</v>
       </c>
       <c r="O7">
-        <v>0.2248913879615893</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="P7">
-        <v>0.2248913879615893</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="Q7">
-        <v>84194.33184891254</v>
+        <v>0.06841240294999999</v>
       </c>
       <c r="R7">
-        <v>84194.33184891254</v>
+        <v>0.61571162655</v>
       </c>
       <c r="S7">
-        <v>0.1050198764690555</v>
+        <v>7.932370593429384E-08</v>
       </c>
       <c r="T7">
-        <v>0.1050198764690555</v>
+        <v>7.932370593429384E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J8">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>383.638815465241</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="N8">
-        <v>383.638815465241</v>
+        <v>0.758875</v>
       </c>
       <c r="O8">
-        <v>0.3180189854130644</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="P8">
-        <v>0.3180189854130644</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="Q8">
-        <v>119059.2322579074</v>
+        <v>78.55014742701388</v>
       </c>
       <c r="R8">
-        <v>119059.2322579074</v>
+        <v>706.9513268431249</v>
       </c>
       <c r="S8">
-        <v>0.1485086417297522</v>
+        <v>9.107835022473621E-05</v>
       </c>
       <c r="T8">
-        <v>0.1485086417297522</v>
+        <v>9.10783502247362E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J9">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>551.244695204251</v>
+        <v>0.023137</v>
       </c>
       <c r="N9">
-        <v>551.244695204251</v>
+        <v>0.069411</v>
       </c>
       <c r="O9">
-        <v>0.4569565737778511</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="P9">
-        <v>0.4569565737778511</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="Q9">
-        <v>171074.3739985524</v>
+        <v>7.184640794671667</v>
       </c>
       <c r="R9">
-        <v>171074.3739985524</v>
+        <v>64.661767152045</v>
       </c>
       <c r="S9">
-        <v>0.2133897761263726</v>
+        <v>8.330541087068575E-06</v>
       </c>
       <c r="T9">
-        <v>0.2133897761263726</v>
+        <v>8.330541087068575E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J10">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.160506885276019</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="N10">
-        <v>0.160506885276019</v>
+        <v>922.681763</v>
       </c>
       <c r="O10">
-        <v>0.0001330528474950822</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="P10">
-        <v>0.0001330528474950822</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="Q10">
-        <v>15.72678060382481</v>
+        <v>95505.56878519793</v>
       </c>
       <c r="R10">
-        <v>15.72678060382481</v>
+        <v>859550.1190667815</v>
       </c>
       <c r="S10">
-        <v>1.96168141013753E-05</v>
+        <v>0.110738043493976</v>
       </c>
       <c r="T10">
-        <v>1.96168141013753E-05</v>
+        <v>0.110738043493976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J11">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>271.29533028934</v>
+        <v>390.777049</v>
       </c>
       <c r="N11">
-        <v>271.29533028934</v>
+        <v>1172.331147</v>
       </c>
       <c r="O11">
-        <v>0.2248913879615893</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="P11">
-        <v>0.2248913879615893</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="Q11">
-        <v>26582.05055169744</v>
+        <v>121346.4462923805</v>
       </c>
       <c r="R11">
-        <v>26582.05055169744</v>
+        <v>1092118.016631425</v>
       </c>
       <c r="S11">
-        <v>0.0331571449517894</v>
+        <v>0.140700361437434</v>
       </c>
       <c r="T11">
-        <v>0.0331571449517894</v>
+        <v>0.1407003614374339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J12">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>383.638815465241</v>
+        <v>568.7975463333333</v>
       </c>
       <c r="N12">
-        <v>383.638815465241</v>
+        <v>1706.392639</v>
       </c>
       <c r="O12">
-        <v>0.3180189854130644</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="P12">
-        <v>0.3180189854130644</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="Q12">
-        <v>37589.68639605467</v>
+        <v>176626.444884627</v>
       </c>
       <c r="R12">
-        <v>37589.68639605467</v>
+        <v>1589638.003961643</v>
       </c>
       <c r="S12">
-        <v>0.0468875295418736</v>
+        <v>0.204797135754576</v>
       </c>
       <c r="T12">
-        <v>0.0468875295418736</v>
+        <v>0.204797135754576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9819686662035</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>97.9819686662035</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J13">
-        <v>0.1474362591307966</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>551.244695204251</v>
+        <v>0.007196999999999999</v>
       </c>
       <c r="N13">
-        <v>551.244695204251</v>
+        <v>0.021591</v>
       </c>
       <c r="O13">
-        <v>0.4569565737778511</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="P13">
-        <v>0.4569565737778511</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="Q13">
-        <v>54012.04045291382</v>
+        <v>2.234855849905</v>
       </c>
       <c r="R13">
-        <v>54012.04045291382</v>
+        <v>20.113702649145</v>
       </c>
       <c r="S13">
-        <v>0.06737196782303226</v>
+        <v>2.591299831595822E-06</v>
       </c>
       <c r="T13">
-        <v>0.06737196782303226</v>
+        <v>2.591299831595822E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.30706353823091</v>
+        <v>104.560098</v>
       </c>
       <c r="H14">
-        <v>78.30706353823091</v>
+        <v>313.680294</v>
       </c>
       <c r="I14">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J14">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="N14">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="O14">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="P14">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="Q14">
-        <v>12.56882286363276</v>
+        <v>26.44934812325</v>
       </c>
       <c r="R14">
-        <v>12.56882286363276</v>
+        <v>238.04413310925</v>
       </c>
       <c r="S14">
-        <v>1.567773263963732E-05</v>
+        <v>3.066783539551799E-05</v>
       </c>
       <c r="T14">
-        <v>1.567773263963732E-05</v>
+        <v>3.066783539551799E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.30706353823091</v>
+        <v>104.560098</v>
       </c>
       <c r="H15">
-        <v>78.30706353823091</v>
+        <v>313.680294</v>
       </c>
       <c r="I15">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J15">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="N15">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="O15">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="P15">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="Q15">
-        <v>21244.34066659269</v>
+        <v>2.419206987426</v>
       </c>
       <c r="R15">
-        <v>21244.34066659269</v>
+        <v>21.772862886834</v>
       </c>
       <c r="S15">
-        <v>0.02649914766799009</v>
+        <v>2.80505369479598E-06</v>
       </c>
       <c r="T15">
-        <v>0.02649914766799009</v>
+        <v>2.805053694795981E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.30706353823091</v>
+        <v>104.560098</v>
       </c>
       <c r="H16">
-        <v>78.30706353823091</v>
+        <v>313.680294</v>
       </c>
       <c r="I16">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J16">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="N16">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="O16">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="P16">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="Q16">
-        <v>30041.62909836827</v>
+        <v>32158.56518736426</v>
       </c>
       <c r="R16">
-        <v>30041.62909836827</v>
+        <v>289427.0866862783</v>
       </c>
       <c r="S16">
-        <v>0.03747245340103696</v>
+        <v>0.03728763291731885</v>
       </c>
       <c r="T16">
-        <v>0.03747245340103696</v>
+        <v>0.03728763291731885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.30706353823091</v>
+        <v>104.560098</v>
       </c>
       <c r="H17">
-        <v>78.30706353823091</v>
+        <v>313.680294</v>
       </c>
       <c r="I17">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J17">
-        <v>0.1178308689726974</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>551.244695204251</v>
+        <v>390.777049</v>
       </c>
       <c r="N17">
-        <v>551.244695204251</v>
+        <v>1172.331147</v>
       </c>
       <c r="O17">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="P17">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="Q17">
-        <v>43166.35337247201</v>
+        <v>40859.6865395908</v>
       </c>
       <c r="R17">
-        <v>43166.35337247201</v>
+        <v>367737.1788563172</v>
       </c>
       <c r="S17">
-        <v>0.05384359017103072</v>
+        <v>0.04737652267532176</v>
       </c>
       <c r="T17">
-        <v>0.05384359017103072</v>
+        <v>0.04737652267532176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.630602596677</v>
+        <v>104.560098</v>
       </c>
       <c r="H18">
-        <v>36.630602596677</v>
+        <v>313.680294</v>
       </c>
       <c r="I18">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J18">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.160506885276019</v>
+        <v>568.7975463333333</v>
       </c>
       <c r="N18">
-        <v>0.160506885276019</v>
+        <v>1706.392639</v>
       </c>
       <c r="O18">
-        <v>0.0001330528474950822</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="P18">
-        <v>0.0001330528474950822</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="Q18">
-        <v>5.879463928576279</v>
+        <v>59473.52718677287</v>
       </c>
       <c r="R18">
-        <v>5.879463928576279</v>
+        <v>535261.7446809559</v>
       </c>
       <c r="S18">
-        <v>7.333754683051428E-06</v>
+        <v>0.06895914158850344</v>
       </c>
       <c r="T18">
-        <v>7.333754683051428E-06</v>
+        <v>0.06895914158850346</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.630602596677</v>
+        <v>104.560098</v>
       </c>
       <c r="H19">
-        <v>36.630602596677</v>
+        <v>313.680294</v>
       </c>
       <c r="I19">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J19">
-        <v>0.05511911109848659</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>271.29533028934</v>
+        <v>0.007196999999999999</v>
       </c>
       <c r="N19">
-        <v>271.29533028934</v>
+        <v>0.021591</v>
       </c>
       <c r="O19">
-        <v>0.2248913879615893</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="P19">
-        <v>0.2248913879615893</v>
+        <v>5.678471743996927E-06</v>
       </c>
       <c r="Q19">
-        <v>9937.711430163041</v>
+        <v>0.7525190253059999</v>
       </c>
       <c r="R19">
-        <v>9937.711430163041</v>
+        <v>6.772671227754</v>
       </c>
       <c r="S19">
-        <v>0.01239581339814769</v>
+        <v>8.725405818146979E-07</v>
       </c>
       <c r="T19">
-        <v>0.01239581339814769</v>
+        <v>8.72540581814698E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.630602596677</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H20">
-        <v>36.630602596677</v>
+        <v>235.360351</v>
       </c>
       <c r="I20">
-        <v>0.05511911109848659</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J20">
-        <v>0.05511911109848659</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>383.638815465241</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="N20">
-        <v>383.638815465241</v>
+        <v>0.758875</v>
       </c>
       <c r="O20">
-        <v>0.3180189854130644</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="P20">
-        <v>0.3180189854130644</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="Q20">
-        <v>14052.92098996715</v>
+        <v>19.84545404056944</v>
       </c>
       <c r="R20">
-        <v>14052.92098996715</v>
+        <v>178.609086365125</v>
       </c>
       <c r="S20">
-        <v>0.01752892378841068</v>
+        <v>2.30106660863412E-05</v>
       </c>
       <c r="T20">
-        <v>0.01752892378841068</v>
+        <v>2.30106660863412E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.630602596677</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H21">
-        <v>36.630602596677</v>
+        <v>235.360351</v>
       </c>
       <c r="I21">
-        <v>0.05511911109848659</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J21">
-        <v>0.05511911109848659</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>551.244695204251</v>
+        <v>0.023137</v>
       </c>
       <c r="N21">
-        <v>551.244695204251</v>
+        <v>0.069411</v>
       </c>
       <c r="O21">
-        <v>0.4569565737778511</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="P21">
-        <v>0.4569565737778511</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="Q21">
-        <v>20192.42536355326</v>
+        <v>1.815177480362333</v>
       </c>
       <c r="R21">
-        <v>20192.42536355326</v>
+        <v>16.336597323261</v>
       </c>
       <c r="S21">
-        <v>0.02518704015724516</v>
+        <v>2.10468567777174E-06</v>
       </c>
       <c r="T21">
-        <v>0.02518704015724516</v>
+        <v>2.10468567777174E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>137.94597810888</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H22">
-        <v>137.94597810888</v>
+        <v>235.360351</v>
       </c>
       <c r="I22">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J22">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.160506885276019</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="N22">
-        <v>0.160506885276019</v>
+        <v>922.681763</v>
       </c>
       <c r="O22">
-        <v>0.0001330528474950822</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="P22">
-        <v>0.0001330528474950822</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="Q22">
-        <v>22.14127928261023</v>
+        <v>24129.18928899764</v>
       </c>
       <c r="R22">
-        <v>22.14127928261023</v>
+        <v>217162.7036009788</v>
       </c>
       <c r="S22">
-        <v>2.761794486711182E-05</v>
+        <v>0.02797762734620275</v>
       </c>
       <c r="T22">
-        <v>2.761794486711182E-05</v>
+        <v>0.02797762734620275</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>137.94597810888</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H23">
-        <v>137.94597810888</v>
+        <v>235.360351</v>
       </c>
       <c r="I23">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J23">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>271.29533028934</v>
+        <v>390.777049</v>
       </c>
       <c r="N23">
-        <v>271.29533028934</v>
+        <v>1172.331147</v>
       </c>
       <c r="O23">
-        <v>0.2248913879615893</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="P23">
-        <v>0.2248913879615893</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="Q23">
-        <v>37424.09969313467</v>
+        <v>30657.80780512806</v>
       </c>
       <c r="R23">
-        <v>37424.09969313467</v>
+        <v>275920.2702461525</v>
       </c>
       <c r="S23">
-        <v>0.04668098481726216</v>
+        <v>0.03554751515893181</v>
       </c>
       <c r="T23">
-        <v>0.04668098481726216</v>
+        <v>0.03554751515893181</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,861 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>137.94597810888</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H24">
-        <v>137.94597810888</v>
+        <v>235.360351</v>
       </c>
       <c r="I24">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J24">
-        <v>0.2075712424578709</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>383.638815465241</v>
+        <v>568.7975463333333</v>
       </c>
       <c r="N24">
-        <v>383.638815465241</v>
+        <v>1706.392639</v>
       </c>
       <c r="O24">
-        <v>0.3180189854130644</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="P24">
-        <v>0.3180189854130644</v>
+        <v>0.4487843260954031</v>
       </c>
       <c r="Q24">
-        <v>52921.4316398848</v>
+        <v>44624.13005098403</v>
       </c>
       <c r="R24">
-        <v>52921.4316398848</v>
+        <v>401617.1704588563</v>
       </c>
       <c r="S24">
-        <v>0.06601159592738129</v>
+        <v>0.05174136877380275</v>
       </c>
       <c r="T24">
-        <v>0.06601159592738129</v>
+        <v>0.05174136877380275</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>78.45345033333332</v>
+      </c>
+      <c r="H25">
+        <v>235.360351</v>
+      </c>
+      <c r="I25">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="J25">
+        <v>0.1152922813146632</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.021591</v>
+      </c>
+      <c r="O25">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="P25">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="Q25">
+        <v>0.5646294820489999</v>
+      </c>
+      <c r="R25">
+        <v>5.081665338441</v>
+      </c>
+      <c r="S25">
+        <v>6.546839617462597E-07</v>
+      </c>
+      <c r="T25">
+        <v>6.546839617462597E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>137.94597810888</v>
-      </c>
-      <c r="H25">
-        <v>137.94597810888</v>
-      </c>
-      <c r="I25">
-        <v>0.2075712424578709</v>
-      </c>
-      <c r="J25">
-        <v>0.2075712424578709</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>551.244695204251</v>
-      </c>
-      <c r="N25">
-        <v>551.244695204251</v>
-      </c>
-      <c r="O25">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="P25">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="Q25">
-        <v>76041.98865728185</v>
-      </c>
-      <c r="R25">
-        <v>76041.98865728185</v>
-      </c>
-      <c r="S25">
-        <v>0.0948510437683603</v>
-      </c>
-      <c r="T25">
-        <v>0.0948510437683603</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>37.654794</v>
+      </c>
+      <c r="H26">
+        <v>112.964382</v>
+      </c>
+      <c r="I26">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J26">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2529583333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.758875</v>
+      </c>
+      <c r="O26">
+        <v>0.0001995854867641919</v>
+      </c>
+      <c r="P26">
+        <v>0.0001995854867641919</v>
+      </c>
+      <c r="Q26">
+        <v>9.525093932250002</v>
+      </c>
+      <c r="R26">
+        <v>85.72584539025</v>
+      </c>
+      <c r="S26">
+        <v>1.104428024009827E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.104428024009827E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.654794</v>
+      </c>
+      <c r="H27">
+        <v>112.964382</v>
+      </c>
+      <c r="I27">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J27">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.023137</v>
+      </c>
+      <c r="N27">
+        <v>0.069411</v>
+      </c>
+      <c r="O27">
+        <v>1.825521755465568E-05</v>
+      </c>
+      <c r="P27">
+        <v>1.825521755465568E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.8712189687780001</v>
+      </c>
+      <c r="R27">
+        <v>7.840970719002</v>
+      </c>
+      <c r="S27">
+        <v>1.010172341618134E-06</v>
+      </c>
+      <c r="T27">
+        <v>1.010172341618133E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.654794</v>
+      </c>
+      <c r="H28">
+        <v>112.964382</v>
+      </c>
+      <c r="I28">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J28">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>307.5605876666667</v>
+      </c>
+      <c r="N28">
+        <v>922.681763</v>
+      </c>
+      <c r="O28">
+        <v>0.2426669593764425</v>
+      </c>
+      <c r="P28">
+        <v>0.2426669593764425</v>
+      </c>
+      <c r="Q28">
+        <v>11581.13057110727</v>
+      </c>
+      <c r="R28">
+        <v>104230.1751399655</v>
+      </c>
+      <c r="S28">
+        <v>0.01342824043880736</v>
+      </c>
+      <c r="T28">
+        <v>0.01342824043880736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.654794</v>
+      </c>
+      <c r="H29">
+        <v>112.964382</v>
+      </c>
+      <c r="I29">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J29">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>390.777049</v>
+      </c>
+      <c r="N29">
+        <v>1172.331147</v>
+      </c>
+      <c r="O29">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="P29">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="Q29">
+        <v>14714.62928002291</v>
+      </c>
+      <c r="R29">
+        <v>132431.6635202061</v>
+      </c>
+      <c r="S29">
+        <v>0.01706151042222216</v>
+      </c>
+      <c r="T29">
+        <v>0.01706151042222215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.654794</v>
+      </c>
+      <c r="H30">
+        <v>112.964382</v>
+      </c>
+      <c r="I30">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J30">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="N30">
+        <v>1706.392639</v>
+      </c>
+      <c r="O30">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="P30">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="Q30">
+        <v>21417.95443488712</v>
+      </c>
+      <c r="R30">
+        <v>192761.5899139841</v>
+      </c>
+      <c r="S30">
+        <v>0.02483396936881152</v>
+      </c>
+      <c r="T30">
+        <v>0.02483396936881151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.654794</v>
+      </c>
+      <c r="H31">
+        <v>112.964382</v>
+      </c>
+      <c r="I31">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="J31">
+        <v>0.05533608890684003</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.021591</v>
+      </c>
+      <c r="O31">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="P31">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="Q31">
+        <v>0.271001552418</v>
+      </c>
+      <c r="R31">
+        <v>2.439013971762</v>
+      </c>
+      <c r="S31">
+        <v>3.142244172807929E-07</v>
+      </c>
+      <c r="T31">
+        <v>3.142244172807929E-07</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H32">
+        <v>419.323142</v>
+      </c>
+      <c r="I32">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J32">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2529583333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.758875</v>
+      </c>
+      <c r="O32">
+        <v>0.0001995854867641919</v>
+      </c>
+      <c r="P32">
+        <v>0.0001995854867641919</v>
+      </c>
+      <c r="Q32">
+        <v>35.35709437613889</v>
+      </c>
+      <c r="R32">
+        <v>318.21384938525</v>
+      </c>
+      <c r="S32">
+        <v>4.09963052903394E-05</v>
+      </c>
+      <c r="T32">
+        <v>4.099630529033939E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H33">
+        <v>419.323142</v>
+      </c>
+      <c r="I33">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J33">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.023137</v>
+      </c>
+      <c r="N33">
+        <v>0.069411</v>
+      </c>
+      <c r="O33">
+        <v>1.825521755465568E-05</v>
+      </c>
+      <c r="P33">
+        <v>1.825521755465568E-05</v>
+      </c>
+      <c r="Q33">
+        <v>3.233959845484667</v>
+      </c>
+      <c r="R33">
+        <v>29.105638609362</v>
+      </c>
+      <c r="S33">
+        <v>3.749753973325973E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.749753973325973E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H34">
+        <v>419.323142</v>
+      </c>
+      <c r="I34">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J34">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>307.5605876666667</v>
+      </c>
+      <c r="N34">
+        <v>922.681763</v>
+      </c>
+      <c r="O34">
+        <v>0.2426669593764425</v>
+      </c>
+      <c r="P34">
+        <v>0.2426669593764425</v>
+      </c>
+      <c r="Q34">
+        <v>42989.09065858438</v>
+      </c>
+      <c r="R34">
+        <v>386901.8159272594</v>
+      </c>
+      <c r="S34">
+        <v>0.04984555195753791</v>
+      </c>
+      <c r="T34">
+        <v>0.04984555195753791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H35">
+        <v>419.323142</v>
+      </c>
+      <c r="I35">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J35">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>390.777049</v>
+      </c>
+      <c r="N35">
+        <v>1172.331147</v>
+      </c>
+      <c r="O35">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="P35">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="Q35">
+        <v>54620.62000272265</v>
+      </c>
+      <c r="R35">
+        <v>491585.5800245039</v>
+      </c>
+      <c r="S35">
+        <v>0.06333222942353584</v>
+      </c>
+      <c r="T35">
+        <v>0.06333222942353582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H36">
+        <v>419.323142</v>
+      </c>
+      <c r="I36">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J36">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="N36">
+        <v>1706.392639</v>
+      </c>
+      <c r="O36">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="P36">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="Q36">
+        <v>79503.32476346131</v>
+      </c>
+      <c r="R36">
+        <v>715529.9228711518</v>
+      </c>
+      <c r="S36">
+        <v>0.09218355272427199</v>
+      </c>
+      <c r="T36">
+        <v>0.09218355272427199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>139.7743806666667</v>
+      </c>
+      <c r="H37">
+        <v>419.323142</v>
+      </c>
+      <c r="I37">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="J37">
+        <v>0.205407246563855</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="N37">
+        <v>0.021591</v>
+      </c>
+      <c r="O37">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="P37">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="Q37">
+        <v>1.005956217658</v>
+      </c>
+      <c r="R37">
+        <v>9.053605958922001</v>
+      </c>
+      <c r="S37">
+        <v>1.166399245625061E-06</v>
+      </c>
+      <c r="T37">
+        <v>1.166399245625061E-06</v>
       </c>
     </row>
   </sheetData>
